--- a/public/question.xlsx
+++ b/public/question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>编号</t>
   </si>
@@ -25,6 +25,9 @@
     <t>题目</t>
   </si>
   <si>
+    <t>封面</t>
+  </si>
+  <si>
     <t>选项</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>数据不仅可以直接转化为现实生产力，也能够放大其他生产要素的潜力，优化要素投入结构，驱动数字化转型、实现全要素生产率提升。</t>
+  </si>
+  <si>
+    <t>assets/case3.png</t>
   </si>
   <si>
     <t>T||F</t>
@@ -78,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,9 +168,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,46 +190,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,85 +244,70 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,19 +332,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +434,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,133 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +604,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -638,17 +626,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,158 +651,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +833,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,19 +866,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:IX2"/>
+  <dimension ref="A1:IY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1210,342 +1212,349 @@
     <col min="1" max="1" width="5.57692307692308" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.76923076923077" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.8846153846154" style="4" customWidth="1"/>
-    <col min="4" max="5" width="5.57692307692308" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35.5769230769231" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.7307692307692" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5769230769231" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.1923076923077" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.96153846153846" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.8365384615385" style="5" customWidth="1"/>
-    <col min="12" max="258" width="9" style="5"/>
-    <col min="259" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="20.9615384615385" style="5" customWidth="1"/>
+    <col min="5" max="6" width="5.57692307692308" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.5769230769231" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.7307692307692" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.5769230769231" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.1923076923077" style="6" customWidth="1"/>
+    <col min="11" max="11" width="5.96153846153846" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.8365384615385" style="6" customWidth="1"/>
+    <col min="13" max="259" width="9" style="6"/>
+    <col min="260" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16" spans="1:258">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="16" spans="1:259">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-      <c r="DH1" s="17"/>
-      <c r="DI1" s="17"/>
-      <c r="DJ1" s="17"/>
-      <c r="DK1" s="17"/>
-      <c r="DL1" s="17"/>
-      <c r="DM1" s="17"/>
-      <c r="DN1" s="17"/>
-      <c r="DO1" s="17"/>
-      <c r="DP1" s="17"/>
-      <c r="DQ1" s="17"/>
-      <c r="DR1" s="17"/>
-      <c r="DS1" s="17"/>
-      <c r="DT1" s="17"/>
-      <c r="DU1" s="17"/>
-      <c r="DV1" s="17"/>
-      <c r="DW1" s="17"/>
-      <c r="DX1" s="17"/>
-      <c r="DY1" s="17"/>
-      <c r="DZ1" s="17"/>
-      <c r="EA1" s="17"/>
-      <c r="EB1" s="17"/>
-      <c r="EC1" s="17"/>
-      <c r="ED1" s="17"/>
-      <c r="EE1" s="17"/>
-      <c r="EF1" s="17"/>
-      <c r="EG1" s="17"/>
-      <c r="EH1" s="17"/>
-      <c r="EI1" s="17"/>
-      <c r="EJ1" s="17"/>
-      <c r="EK1" s="17"/>
-      <c r="EL1" s="17"/>
-      <c r="EM1" s="17"/>
-      <c r="EN1" s="17"/>
-      <c r="EO1" s="17"/>
-      <c r="EP1" s="17"/>
-      <c r="EQ1" s="17"/>
-      <c r="ER1" s="17"/>
-      <c r="ES1" s="17"/>
-      <c r="ET1" s="17"/>
-      <c r="EU1" s="17"/>
-      <c r="EV1" s="17"/>
-      <c r="EW1" s="17"/>
-      <c r="EX1" s="17"/>
-      <c r="EY1" s="17"/>
-      <c r="EZ1" s="17"/>
-      <c r="FA1" s="17"/>
-      <c r="FB1" s="17"/>
-      <c r="FC1" s="17"/>
-      <c r="FD1" s="17"/>
-      <c r="FE1" s="17"/>
-      <c r="FF1" s="17"/>
-      <c r="FG1" s="17"/>
-      <c r="FH1" s="17"/>
-      <c r="FI1" s="17"/>
-      <c r="FJ1" s="17"/>
-      <c r="FK1" s="17"/>
-      <c r="FL1" s="17"/>
-      <c r="FM1" s="17"/>
-      <c r="FN1" s="17"/>
-      <c r="FO1" s="17"/>
-      <c r="FP1" s="17"/>
-      <c r="FQ1" s="17"/>
-      <c r="FR1" s="17"/>
-      <c r="FS1" s="17"/>
-      <c r="FT1" s="17"/>
-      <c r="FU1" s="17"/>
-      <c r="FV1" s="17"/>
-      <c r="FW1" s="17"/>
-      <c r="FX1" s="17"/>
-      <c r="FY1" s="17"/>
-      <c r="FZ1" s="17"/>
-      <c r="GA1" s="17"/>
-      <c r="GB1" s="17"/>
-      <c r="GC1" s="17"/>
-      <c r="GD1" s="17"/>
-      <c r="GE1" s="17"/>
-      <c r="GF1" s="17"/>
-      <c r="GG1" s="17"/>
-      <c r="GH1" s="17"/>
-      <c r="GI1" s="17"/>
-      <c r="GJ1" s="17"/>
-      <c r="GK1" s="17"/>
-      <c r="GL1" s="17"/>
-      <c r="GM1" s="17"/>
-      <c r="GN1" s="17"/>
-      <c r="GO1" s="17"/>
-      <c r="GP1" s="17"/>
-      <c r="GQ1" s="17"/>
-      <c r="GR1" s="17"/>
-      <c r="GS1" s="17"/>
-      <c r="GT1" s="17"/>
-      <c r="GU1" s="17"/>
-      <c r="GV1" s="17"/>
-      <c r="GW1" s="17"/>
-      <c r="GX1" s="17"/>
-      <c r="GY1" s="17"/>
-      <c r="GZ1" s="17"/>
-      <c r="HA1" s="17"/>
-      <c r="HB1" s="17"/>
-      <c r="HC1" s="17"/>
-      <c r="HD1" s="17"/>
-      <c r="HE1" s="17"/>
-      <c r="HF1" s="17"/>
-      <c r="HG1" s="17"/>
-      <c r="HH1" s="17"/>
-      <c r="HI1" s="17"/>
-      <c r="HJ1" s="17"/>
-      <c r="HK1" s="17"/>
-      <c r="HL1" s="17"/>
-      <c r="HM1" s="17"/>
-      <c r="HN1" s="17"/>
-      <c r="HO1" s="17"/>
-      <c r="HP1" s="17"/>
-      <c r="HQ1" s="17"/>
-      <c r="HR1" s="17"/>
-      <c r="HS1" s="17"/>
-      <c r="HT1" s="17"/>
-      <c r="HU1" s="17"/>
-      <c r="HV1" s="17"/>
-      <c r="HW1" s="17"/>
-      <c r="HX1" s="17"/>
-      <c r="HY1" s="17"/>
-      <c r="HZ1" s="17"/>
-      <c r="IA1" s="17"/>
-      <c r="IB1" s="17"/>
-      <c r="IC1" s="17"/>
-      <c r="ID1" s="17"/>
-      <c r="IE1" s="17"/>
-      <c r="IF1" s="17"/>
-      <c r="IG1" s="17"/>
-      <c r="IH1" s="17"/>
-      <c r="II1" s="17"/>
-      <c r="IJ1" s="17"/>
-      <c r="IK1" s="17"/>
-      <c r="IL1" s="17"/>
-      <c r="IM1" s="17"/>
-      <c r="IN1" s="17"/>
-      <c r="IO1" s="17"/>
-      <c r="IP1" s="17"/>
-      <c r="IQ1" s="17"/>
-      <c r="IR1" s="17"/>
-      <c r="IS1" s="17"/>
-      <c r="IT1" s="17"/>
-      <c r="IU1" s="17"/>
-      <c r="IV1" s="17"/>
-      <c r="IW1" s="17"/>
-      <c r="IX1" s="17"/>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="20"/>
+      <c r="FN1" s="20"/>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="20"/>
+      <c r="GL1" s="20"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="20"/>
+      <c r="HJ1" s="20"/>
+      <c r="HK1" s="20"/>
+      <c r="HL1" s="20"/>
+      <c r="HM1" s="20"/>
+      <c r="HN1" s="20"/>
+      <c r="HO1" s="20"/>
+      <c r="HP1" s="20"/>
+      <c r="HQ1" s="20"/>
+      <c r="HR1" s="20"/>
+      <c r="HS1" s="20"/>
+      <c r="HT1" s="20"/>
+      <c r="HU1" s="20"/>
+      <c r="HV1" s="20"/>
+      <c r="HW1" s="20"/>
+      <c r="HX1" s="20"/>
+      <c r="HY1" s="20"/>
+      <c r="HZ1" s="20"/>
+      <c r="IA1" s="20"/>
+      <c r="IB1" s="20"/>
+      <c r="IC1" s="20"/>
+      <c r="ID1" s="20"/>
+      <c r="IE1" s="20"/>
+      <c r="IF1" s="20"/>
+      <c r="IG1" s="20"/>
+      <c r="IH1" s="20"/>
+      <c r="II1" s="20"/>
+      <c r="IJ1" s="20"/>
+      <c r="IK1" s="20"/>
+      <c r="IL1" s="20"/>
+      <c r="IM1" s="20"/>
+      <c r="IN1" s="20"/>
+      <c r="IO1" s="20"/>
+      <c r="IP1" s="20"/>
+      <c r="IQ1" s="20"/>
+      <c r="IR1" s="20"/>
+      <c r="IS1" s="20"/>
+      <c r="IT1" s="20"/>
+      <c r="IU1" s="20"/>
+      <c r="IV1" s="20"/>
+      <c r="IW1" s="20"/>
+      <c r="IX1" s="20"/>
+      <c r="IY1" s="20"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="61" spans="1:11">
-      <c r="A2" s="9">
+    <row r="2" s="2" customFormat="1" ht="61" spans="1:12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="J2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"判断题,单选题,多选题"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"行业政策,资源盘点,数字技术,管理实践,数字思维"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"数字驱动思维,产品设计,数字孪生,新基建,数字经济,产品声明周期价值链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
       <formula1>"在线,离线"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
